--- a/biology/Histoire de la zoologie et de la botanique/Charles_de_Rochefort_(pasteur)/Charles_de_Rochefort_(pasteur).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_de_Rochefort_(pasteur)/Charles_de_Rochefort_(pasteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles de Rochefort (°1605 - † 26 septembre 1683[1]) est un pasteur et écrivain français établi en Hollande ayant voyagé aux Antilles et auteur de deux œuvres.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles de Rochefort (°1605 - † 26 septembre 1683) est un pasteur et écrivain français établi en Hollande ayant voyagé aux Antilles et auteur de deux œuvres.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Souvent confondu avec César de Rochefort, il est l'auteur présumé de l'Histoire Naturelle et Morale des isles Antilles de l'Amérique publiée dès 1658 à Rotterdam. Cette œuvre fut rapidement traduite en néerlandais (1662), en anglais (1666) et en allemand (1668). Certains l'ont accusé de publier une œuvre de propagande pour le gouverneur de l'île de Saint-Christophe, Philippe de Longvilliers de Poincy, la préface étant signé des trois initiales « LDP ».
 Il récidive en 1665 en faisant paraître à Leyde Le Tableau de l'isle de Tabago ou de la Nouvelle-Oüalchre, l'une des isles Antilles de l'Amérique témoignant de son probable passage dans la colonie des frères Lampsins à Tobago.
